--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hr_HR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hr_HR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5222">
   <si>
     <t>translation_group</t>
   </si>
@@ -15637,12 +15637,6 @@
   </si>
   <si>
     <t xml:space="preserve"> obavijesti</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54,000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16029,17 +16023,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54686,18 +54680,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5206</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5207</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54707,10 +54693,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="D2763" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54721,10 +54707,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="D2764" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54735,10 +54721,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
       <c r="D2765" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54749,10 +54735,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
       <c r="D2766" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54763,10 +54749,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
       <c r="D2767" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54777,10 +54763,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
       <c r="D2768" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54791,10 +54777,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="D2769" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54833,11 +54819,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
       <c r="D2772" t="s">
-        <v>5223</v>
-      </c>
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hr_HR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hr_HR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6136">
   <si>
     <t>translation_group</t>
   </si>
@@ -17543,6 +17543,900 @@
                                                     Razmislite o tome što biste kao potrošač željeli znati, a zatim u svoj opis uključite te značajke. Za odjeću: materijali i prilagodba. Za hranu: sastojci i kako je pripremljena. Oznake su vaši prijatelji kada navode
                                                    značajke - pokušajte
                                                             ograničiti svaku na 5-8 riječi.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Admin jezik</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Ograničiti</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Urednik koda</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>naslovi</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Naslovi 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Naslovi 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Naslovi 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Naslovi 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Naslovi 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Naslovi 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Naslovi 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Naslovi 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>blok teksta</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blok teksta 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blok teksta 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blok teksta 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blok teksta 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blok teksta 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blok teksta 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blok teksta 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blok teksta 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blok teksta 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blok teksta 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blok teksta 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blok teksta 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blok teksta 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blok teksta 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blok teksta 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>značajke</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Značajke 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Značajke 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Značajke 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Značajke 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>rešetke</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Jelovnik</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Izbornik - koža-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Izbornik - koža-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Izbornik - koža-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Izbornik - koža-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Izbornik - koža-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>podnožja</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Podnožja 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Podnožja 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Podnožja 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Podnožja 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>drugo</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>cijene</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Cijena 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Zadani izgledi</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Ovdje nema sadržaja</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Prilagođena polja su spremljena</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Postojeća polja</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Odaberite iz svojih postojećih polja u nastavku</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodajte nova polja</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Dodajte novo prilagođeno polje s popisa u nastavku</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaša polja</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Popis vaših dodanih prilagođenih polja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ponoviti okomito </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Obitelj fontova</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Preklapanje</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Način miješanja</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Kontejner</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Vrsta kontejnera</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animacije</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Ponovno učitavanje stilova</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Linkovi na</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pregled paketa</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Koristiti</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Trenutno</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Ponovno naručite</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sustav</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Preusmjeravanje preglednika</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integracija</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostalni program za ažuriranje</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Za instalaciju ovog paketa potreban vam je licencni ključ</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Ovaj paket je premium i morate imati licencni ključ da biste ga instalirali</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Potreban vam je licencni ključ</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licenca aktivirana</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Ponovno učitavanje stranice</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licenca nije aktivirana</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Ažuriranja sustava</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Provjerite ima li ažuriranja sustava</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Povratak na popis</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorija mora imati naziv</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Je li kategorija skrivena?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Ako ovo postavite na DA, ova kategorija će biti skrivena s web stranice</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Spominjući</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vaša košarica je prazna.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Pronađeni rezultati</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Ako odaberete Postotak iz polja za odabir, on će se automatski izračunati iz cijene i cijene ponude proizvoda.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Nastavite na blagajnu</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Prikazivanje</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>rezultat(i)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Naslov stranice - Desna krušna mrvica</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Naslov stranice - Lijeva krušna mrvica</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Uvjeti korištenja</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Dostava i povrat</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Podaci o dostavi</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Oko 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Oko 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Oko 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Dom 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Dom 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Morate kliknuti gumb Primijeni predložak da biste promijenili svoj predložak</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Traži po kriterijima</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>ID narudžbe</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Datum od</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Postavite narudžbe od datuma</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Datum do</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Postavite narudžbe na datum</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Iznos narudžbe od</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Prikažite narudžbu s minimalnim iznosom</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Iznos narudžbe do</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Prikažite narudžbu s maksimalnim iznosom</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Traži po proizvodima...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Traži po proizvodima</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Status plaćanja</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Besplatno pretraživanje po telefonu, imenu, e-pošti itd...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Pošaljite ove kriterije</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Poništi filtar</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Izvezi sve</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Odaberite sortiranje</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Datum narudžbe</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Novo &gt; Staro]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Staro &gt; Novo]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Visoka &gt; Niska]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[niska &gt; visoka]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Narudžba dovršena</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>prijevodi iz višejezičnog modula pronađeni su u vašoj bazi podataka.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Upozorenje! Promjena zadanog jezika može prekinuti prijevode na vašoj web-lokaciji.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Jeste li sigurni da želite nastaviti?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Upozorenje! Promjena zadanog jezika možda će pokvariti vašu stranicu.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Detalji dostave</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>narudžba još nije dovršena</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>narudžba je dovršena</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Stvoreno u</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Ažurirano na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzi pogled </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Zamijenite jezične vrijednosti</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Prijevodi su uvezeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijevodi nisu pronađeni u bazi podataka. Želite li uvesti prijevode? </t>
   </si>
 </sst>
 </file>
@@ -17566,10 +18460,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17580,7 +18471,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17881,7 +18772,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69943,8 +70834,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6015</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5835</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -69956,5 +73481,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hr_HR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hr_HR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5943">
   <si>
     <t>translation_group</t>
   </si>
@@ -10040,7 +10040,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Ispunite polja za maksimalne rezultate pri pronalaženju vašeg web mjesta u tražilicama.</t>
+    <t>Ispunite polja za maksimalne rezultate prilikom pronalaženja vaše web stranice u tražilicama.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17229,13 +17229,10 @@
     <t>Remove logo</t>
   </si>
   <si>
-    <t>Uklonite logotip</t>
-  </si>
-  <si>
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Uklonite favicon</t>
+    <t>Ukloni favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17253,7 +17250,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>ProizvodiV2</t>
+    <t>Proizvodi V2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17274,13 +17271,13 @@
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Predložak modula promijenjen je</t>
+    <t>Predložak modula je promijenjen</t>
   </si>
   <si>
     <t>Content versions</t>
   </si>
   <si>
-    <t>Verzije sadržaja</t>
+    <t>Sadržajne verzije</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17325,13 +17322,13 @@
     <t>Two Text Columns</t>
   </si>
   <si>
-    <t>Dva stupca teksta</t>
+    <t>Dva tekstualna stupca</t>
   </si>
   <si>
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Dva stupca teksta s ikonom i naslovom</t>
+    <t>Dva tekstualna stupca s ikonom i naslovom</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17358,13 +17355,13 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Postavke Captcha</t>
+    <t>Captcha postavke</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Postavite svoje captcha postavke iz </t>
+    <t xml:space="preserve">Postavite svoje postavke captcha iz </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
@@ -17400,13 +17397,13 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Pošaljite podatke obrasca za kontakt prilagođenim prijamnicima kad su predani</t>
+    <t>Pošalji podatke obrasca za kontakt prilagođenim primateljima kada se predaju</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Koristite prilagođene postavke prijemnika za trenutni obrazac za kontakt.</t>
+    <t>Koristite prilagođene postavke primatelja za trenutni obrazac za kontakt.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
@@ -17430,43 +17427,40 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Omogućite poruku automatskog odgovora korisniku</t>
+    <t>Omogući automatski odgovor na poruku korisniku</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Omogućite korisnicima da dobiju "Hvala e-porukama nakon pretplate."</t>
+    <t>Omogućite korisnicima da primaju e-poštu "Zahvala nakon pretplate."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Automatski odgovor subjekta</t>
-  </si>
-  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Automatsko odgovaranje omogućuje vam postavljanje automatskih odgovora na dolaznu e-poštu</t>
+    <t>Automatski odgovori omogućuju vam postavljanje automatskih odgovora na dolaznu e-poštu</t>
   </si>
   <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Automatski odgovor na poruku</t>
+    <t>Poruka s automatskim odgovorom</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Automatski odgovorite na e-poštu poslanu natrag korisniku</t>
+    <t>Automatski odgovor na e-poštu poslan natrag korisniku</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Automatski odgovori prilagođenog pošiljatelja</t>
+    <t>Prilagođeni pošiljatelj s automatskim odgovorom</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17484,30 +17478,33 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Automatski odgovor iz imena</t>
+    <t>Automatski odgovor na ime</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Automatski odgovor na odgovor na e-poštu</t>
+    <t>Automatski odgovor na e-poštu</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Kada korisnik primi poruku automatskog odgovora, može odgovoriti na odgovor na e-poštu.</t>
+    <t>Kada korisnik primi poruku s automatskim odgovorom, može odgovoriti na e-poštu.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automatski odgovorite na privitke e-pošte</t>
+    <t>Automatski odgovor na privitke e-pošte</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Ako želite priložiti og slike, morate ih učitati u galeriju iz 'Dodaj medij'</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
@@ -17517,13 +17514,13 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Stvorite svoj prvi post odmah.</t>
+    <t>Napravite svoju prvu objavu odmah.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Izradite post</t>
+    <t>Napravi objavu</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17537,18 +17534,72 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Kako napisati opise proizvoda koji se prodaju
-                                                    Jedna od najboljih stvari koje možete učiniti da bi vaša trgovina bila uspješna jest uložiti malo vremena u pisanje sjajnih opisa proizvoda. Želite pružiti detaljne, a sažete informacije koje će potaknuti potencijalne kupce na kupnju.
-                                                    Razmišljajte poput potrošača
-                                                    Razmislite o tome što biste kao potrošač željeli znati, a zatim u svoj opis uključite te značajke. Za odjeću: materijali i prilagodba. Za hranu: sastojci i kako je pripremljena. Oznake su vaši prijatelji kada navode
-                                                   značajke - pokušajte
+    <t>Kako napisati opise proizvoda koji prodaju
+                                                    Jedna od najboljih stvari koje možete učiniti kako biste svoju trgovinu učinili uspješnom je uložiti malo vremena u pisanje sjajnih opisa proizvoda. Želite pružiti detaljne, ali sažete informacije koje će potaknuti potencijalne kupce na kupnju.
+                                                    Razmišljajte kao potrošač
+                                                    Razmislite o tome što biste kao potrošač željeli znati, a zatim uključite te značajke u svoj opis. Za odjeću: materijali i kroj. Za hranu: sastojci i način pripreme. Grafičke oznake su vaši prijatelji kada nabrajate
+                                                   značajke — pokušajte
                                                             ograničiti svaku na 5-8 riječi.</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>Admin jezik</t>
+    <t>Administratorski jezik</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Dodaj post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Dodaj podstranicu</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategorija izbrisana</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Sadržaj izbrisan</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Kategorije pretraživanja</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Stvorite sadržaj</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kartica</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Bilo koje</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
   </si>
   <si>
     <t>Limit</t>
@@ -17557,289 +17608,196 @@
     <t>Ograničiti</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Nemate proizvoda u</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Natrag na</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategorije</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Prilagođena polja su spremljena</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Postojeća polja</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Odaberite jedno od postojećih polja u nastavku</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodajte nova polja</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Dodajte novo prilagođeno polje s popisa u nastavku</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaša polja</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Popis vaših dodanih prilagođenih polja</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Zaliha</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sustav</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Preusmjeravanje preglednika</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integracija</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Alat za uvoz i izvoz</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostalni program za ažuriranje</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pregled paketa</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Koristiti</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Trenutno</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Izraziti</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Prvi razred</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klikni i preuzmi</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video pozadina</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Možete aktivirati višejezični modul za korištenje više jezika</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Višejezični način rada</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivirajte višejezični način kako biste imali više jezika za svoj sadržaj.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Prijevodi su uvezeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijevodi nisu pronađeni u bazi podataka. Želite li uvesti prijevode? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vaša košarica je prazna.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
-    <t>Urednik koda</t>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>naslovi</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Naslovi 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Naslovi 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Naslovi 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Naslovi 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Naslovi 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Naslovi 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Naslovi 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Naslovi 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>blok teksta</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blok teksta 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blok teksta 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blok teksta 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blok teksta 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blok teksta 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blok teksta 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blok teksta 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blok teksta 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blok teksta 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blok teksta 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blok teksta 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blok teksta 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blok teksta 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blok teksta 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blok teksta 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>značajke</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Značajke 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Značajke 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Značajke 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Značajke 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>rešetke</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Jelovnik</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Izbornik - koža-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Izbornik - koža-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Izbornik - koža-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Izbornik - koža-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Izbornik - koža-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>podnožja</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Podnožja 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Podnožja 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Podnožja 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Podnožja 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>drugo</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>cijene</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Cijena 1</t>
+    <t>Uređivač koda</t>
   </si>
   <si>
     <t>Default layouts</t>
@@ -17848,58 +17806,16 @@
     <t>Zadani izgledi</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Ovdje nema sadržaja</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Prilagođena polja su spremljena</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Postojeća polja</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Odaberite iz svojih postojećih polja u nastavku</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dodajte nova polja</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Dodajte novo prilagođeno polje s popisa u nastavku</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Vaša polja</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Popis vaših dodanih prilagođenih polja</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Novi uvoz</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">ponoviti okomito </t>
+    <t xml:space="preserve">ponovi okomito </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -17911,7 +17827,7 @@
     <t>Overlay</t>
   </si>
   <si>
-    <t>Preklapanje</t>
+    <t>Prekrivanje</t>
   </si>
   <si>
     <t>Blend mode</t>
@@ -17929,7 +17845,7 @@
     <t>Container type</t>
   </si>
   <si>
-    <t>Vrsta kontejnera</t>
+    <t>Vrsta spremnika</t>
   </si>
   <si>
     <t>Animations</t>
@@ -17942,501 +17858,6 @@
   </si>
   <si>
     <t>Ponovno učitavanje stilova</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Linkovi na</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Pregled paketa</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Koristiti</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Trenutno</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Ponovno naručite</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sustav</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Preusmjeravanje preglednika</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integracija</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Samostalni program za ažuriranje</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Za instalaciju ovog paketa potreban vam je licencni ključ</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Ovaj paket je premium i morate imati licencni ključ da biste ga instalirali</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Potreban vam je licencni ključ</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licenca aktivirana</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Ponovno učitavanje stranice</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licenca nije aktivirana</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Ažuriranja sustava</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Provjerite ima li ažuriranja sustava</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Povratak na popis</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorija mora imati naziv</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Je li kategorija skrivena?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Ako ovo postavite na DA, ova kategorija će biti skrivena s web stranice</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Spominjući</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Vaša košarica je prazna.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Pronađeni rezultati</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Ako odaberete Postotak iz polja za odabir, on će se automatski izračunati iz cijene i cijene ponude proizvoda.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Nastavite na blagajnu</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Prikazivanje</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>od</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>rezultat(i)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Naslov stranice - Desna krušna mrvica</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Naslov stranice - Lijeva krušna mrvica</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Uvjeti korištenja</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Dostava i povrat</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Podaci o dostavi</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Oko 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Oko 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Oko 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Dom 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Dom 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Morate kliknuti gumb Primijeni predložak da biste promijenili svoj predložak</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Traži po kriterijima</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>ID narudžbe</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Datum od</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Postavite narudžbe od datuma</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Datum do</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Postavite narudžbe na datum</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Iznos narudžbe od</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Prikažite narudžbu s minimalnim iznosom</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Iznos narudžbe do</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Prikažite narudžbu s maksimalnim iznosom</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Traži po proizvodima...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Traži po proizvodima</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status plaćanja</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Besplatno pretraživanje po telefonu, imenu, e-pošti itd...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Pošaljite ove kriterije</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Poništi filtar</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Izvezi sve</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Odaberite sortiranje</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Datum narudžbe</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Novo &gt; Staro]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Staro &gt; Novo]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Visoka &gt; Niska]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[niska &gt; visoka]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Narudžba dovršena</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>prijevodi iz višejezičnog modula pronađeni su u vašoj bazi podataka.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Upozorenje! Promjena zadanog jezika može prekinuti prijevode na vašoj web-lokaciji.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Jeste li sigurni da želite nastaviti?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Upozorenje! Promjena zadanog jezika možda će pokvariti vašu stranicu.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Detalji dostave</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>narudžba još nije dovršena</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>narudžba je dovršena</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Stvoreno u</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Ažurirano na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brzi pogled </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Zamijenite jezične vrijednosti</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Prijevodi su uvezeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prijevodi nisu pronađeni u bazi podataka. Želite li uvesti prijevode? </t>
   </si>
 </sst>
 </file>
@@ -18772,7 +18193,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69927,7 +69348,7 @@
         <v>5735</v>
       </c>
       <c r="D3009" t="s">
-        <v>5736</v>
+        <v>3183</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -69941,10 +69362,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5737</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5738</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -69958,10 +69379,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5739</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5740</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69975,10 +69396,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="D3012" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69992,10 +69413,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="D3013" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70009,10 +69430,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5743</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5744</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70026,10 +69447,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5745</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5746</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70043,10 +69464,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5747</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5748</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70060,7 +69481,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="D3017" t="s">
         <v>3277</v>
@@ -70077,10 +69498,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3018" t="s">
         <v>5750</v>
-      </c>
-      <c r="D3018" t="s">
-        <v>5751</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70094,10 +69515,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3019" t="s">
         <v>5752</v>
-      </c>
-      <c r="D3019" t="s">
-        <v>5753</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70111,7 +69532,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="D3020" t="s">
         <v>1547</v>
@@ -70128,10 +69549,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3021" t="s">
         <v>5755</v>
-      </c>
-      <c r="D3021" t="s">
-        <v>5756</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70145,10 +69566,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D3022" t="s">
         <v>5757</v>
-      </c>
-      <c r="D3022" t="s">
-        <v>5758</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70162,10 +69583,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3023" t="s">
         <v>5759</v>
-      </c>
-      <c r="D3023" t="s">
-        <v>5760</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70179,10 +69600,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3024" t="s">
         <v>5761</v>
-      </c>
-      <c r="D3024" t="s">
-        <v>5762</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70196,10 +69617,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3025" t="s">
         <v>5763</v>
-      </c>
-      <c r="D3025" t="s">
-        <v>5764</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70213,10 +69634,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3026" t="s">
         <v>5765</v>
-      </c>
-      <c r="D3026" t="s">
-        <v>5766</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70230,10 +69651,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3027" t="s">
         <v>5767</v>
-      </c>
-      <c r="D3027" t="s">
-        <v>5768</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70247,10 +69668,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3028" t="s">
         <v>5769</v>
-      </c>
-      <c r="D3028" t="s">
-        <v>5770</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70264,10 +69685,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3029" t="s">
         <v>5771</v>
-      </c>
-      <c r="D3029" t="s">
-        <v>5772</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70281,10 +69702,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3030" t="s">
         <v>5773</v>
-      </c>
-      <c r="D3030" t="s">
-        <v>5774</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70298,7 +69719,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
       <c r="D3031" t="s">
         <v>1103</v>
@@ -70315,10 +69736,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3032" t="s">
         <v>5776</v>
-      </c>
-      <c r="D3032" t="s">
-        <v>5777</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70332,10 +69753,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3033" t="s">
         <v>5778</v>
-      </c>
-      <c r="D3033" t="s">
-        <v>5779</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70349,10 +69770,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3034" t="s">
         <v>5780</v>
-      </c>
-      <c r="D3034" t="s">
-        <v>5781</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70366,10 +69787,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3035" t="s">
         <v>5782</v>
-      </c>
-      <c r="D3035" t="s">
-        <v>5783</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70383,10 +69804,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3036" t="s">
         <v>5784</v>
-      </c>
-      <c r="D3036" t="s">
-        <v>5785</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70400,10 +69821,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3037" t="s">
         <v>5786</v>
-      </c>
-      <c r="D3037" t="s">
-        <v>5787</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70417,10 +69838,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3038" t="s">
         <v>5788</v>
-      </c>
-      <c r="D3038" t="s">
-        <v>5789</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70434,10 +69855,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3039" t="s">
         <v>5790</v>
-      </c>
-      <c r="D3039" t="s">
-        <v>5791</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70451,10 +69872,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3040" t="s">
         <v>5792</v>
-      </c>
-      <c r="D3040" t="s">
-        <v>5793</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70468,10 +69889,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3041" t="s">
         <v>5794</v>
-      </c>
-      <c r="D3041" t="s">
-        <v>5795</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70485,10 +69906,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3042" t="s">
         <v>5796</v>
-      </c>
-      <c r="D3042" t="s">
-        <v>5797</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70502,10 +69923,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3043" t="s">
         <v>5798</v>
-      </c>
-      <c r="D3043" t="s">
-        <v>5799</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70519,10 +69940,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3044" t="s">
         <v>5800</v>
-      </c>
-      <c r="D3044" t="s">
-        <v>5801</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70536,10 +69957,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3045" t="s">
         <v>5802</v>
-      </c>
-      <c r="D3045" t="s">
-        <v>5803</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70553,10 +69974,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3046" t="s">
         <v>5804</v>
-      </c>
-      <c r="D3046" t="s">
-        <v>5805</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70570,10 +69991,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
       <c r="D3047" t="s">
-        <v>5807</v>
+        <v>1936</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70587,10 +70008,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="D3048" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70604,10 +70025,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="D3049" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70621,10 +70042,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="D3050" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70638,10 +70059,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="D3051" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70655,10 +70076,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="D3052" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70672,10 +70093,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="D3053" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70689,10 +70110,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="D3054" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70706,10 +70127,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="D3055" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70723,10 +70144,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="D3056" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70740,10 +70161,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="D3057" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70757,10 +70178,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="D3058" t="s">
-        <v>4171</v>
+        <v>5827</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70774,10 +70195,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3059" t="s">
         <v>5829</v>
-      </c>
-      <c r="D3059" t="s">
-        <v>5830</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70791,10 +70212,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3060" t="s">
         <v>5831</v>
-      </c>
-      <c r="D3060" t="s">
-        <v>5832</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70808,10 +70229,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3061" t="s">
         <v>5833</v>
-      </c>
-      <c r="D3061" t="s">
-        <v>5834</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70822,13 +70243,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
+        <v>5834</v>
+      </c>
+      <c r="C3062" t="s">
         <v>5835</v>
       </c>
-      <c r="C3062" t="s">
+      <c r="D3062" t="s">
         <v>5836</v>
-      </c>
-      <c r="D3062" t="s">
-        <v>5837</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70842,10 +70263,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3063" t="s">
         <v>5838</v>
-      </c>
-      <c r="D3063" t="s">
-        <v>5839</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70859,10 +70280,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3064" t="s">
         <v>5840</v>
-      </c>
-      <c r="D3064" t="s">
-        <v>5841</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70876,10 +70297,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3065" t="s">
         <v>5842</v>
-      </c>
-      <c r="D3065" t="s">
-        <v>5843</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70893,7 +70314,7 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="D3066" t="s">
         <v>5844</v>
@@ -70998,7 +70419,7 @@
         <v>5855</v>
       </c>
       <c r="D3072" t="s">
-        <v>5856</v>
+        <v>5855</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71012,10 +70433,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5857</v>
+        <v>5856</v>
       </c>
       <c r="D3073" t="s">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71029,10 +70450,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5859</v>
+        <v>5857</v>
       </c>
       <c r="D3074" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71046,10 +70467,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="D3075" t="s">
-        <v>5862</v>
+        <v>1629</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71063,10 +70484,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5863</v>
+        <v>5860</v>
       </c>
       <c r="D3076" t="s">
-        <v>5864</v>
+        <v>5861</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71080,10 +70501,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5865</v>
+        <v>5862</v>
       </c>
       <c r="D3077" t="s">
-        <v>5866</v>
+        <v>5863</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71097,10 +70518,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5867</v>
+        <v>5864</v>
       </c>
       <c r="D3078" t="s">
-        <v>5868</v>
+        <v>5865</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71114,10 +70535,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5869</v>
+        <v>5866</v>
       </c>
       <c r="D3079" t="s">
-        <v>5870</v>
+        <v>5867</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71131,10 +70552,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5871</v>
+        <v>5868</v>
       </c>
       <c r="D3080" t="s">
-        <v>5872</v>
+        <v>5869</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71148,10 +70569,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5873</v>
+        <v>5870</v>
       </c>
       <c r="D3081" t="s">
-        <v>5874</v>
+        <v>5871</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71165,10 +70586,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5875</v>
+        <v>5872</v>
       </c>
       <c r="D3082" t="s">
-        <v>5876</v>
+        <v>5873</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71182,10 +70603,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5877</v>
+        <v>5874</v>
       </c>
       <c r="D3083" t="s">
-        <v>5878</v>
+        <v>5875</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71199,10 +70620,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5879</v>
+        <v>5876</v>
       </c>
       <c r="D3084" t="s">
-        <v>5880</v>
+        <v>5877</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71216,10 +70637,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5881</v>
+        <v>5878</v>
       </c>
       <c r="D3085" t="s">
-        <v>5882</v>
+        <v>5879</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71233,10 +70654,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5883</v>
+        <v>5880</v>
       </c>
       <c r="D3086" t="s">
-        <v>5884</v>
+        <v>5881</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71250,10 +70671,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5885</v>
+        <v>5882</v>
       </c>
       <c r="D3087" t="s">
-        <v>5886</v>
+        <v>5883</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71267,10 +70688,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5887</v>
+        <v>5884</v>
       </c>
       <c r="D3088" t="s">
-        <v>5888</v>
+        <v>5884</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71284,10 +70705,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5889</v>
+        <v>5885</v>
       </c>
       <c r="D3089" t="s">
-        <v>5890</v>
+        <v>5886</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71301,10 +70722,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5891</v>
+        <v>5887</v>
       </c>
       <c r="D3090" t="s">
-        <v>5892</v>
+        <v>5888</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71318,10 +70739,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5893</v>
+        <v>5889</v>
       </c>
       <c r="D3091" t="s">
-        <v>5894</v>
+        <v>5890</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71335,10 +70756,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5895</v>
+        <v>5891</v>
       </c>
       <c r="D3092" t="s">
-        <v>5896</v>
+        <v>5892</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71352,10 +70773,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5897</v>
+        <v>5893</v>
       </c>
       <c r="D3093" t="s">
-        <v>5898</v>
+        <v>5894</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71369,10 +70790,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5899</v>
+        <v>5895</v>
       </c>
       <c r="D3094" t="s">
-        <v>5900</v>
+        <v>5895</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71386,10 +70807,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5901</v>
+        <v>5896</v>
       </c>
       <c r="D3095" t="s">
-        <v>5902</v>
+        <v>5897</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71403,10 +70824,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5903</v>
+        <v>5898</v>
       </c>
       <c r="D3096" t="s">
-        <v>5904</v>
+        <v>5899</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71420,10 +70841,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5905</v>
+        <v>5900</v>
       </c>
       <c r="D3097" t="s">
-        <v>5906</v>
+        <v>5901</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71437,10 +70858,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5907</v>
+        <v>5902</v>
       </c>
       <c r="D3098" t="s">
-        <v>5908</v>
+        <v>5903</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71454,10 +70875,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5909</v>
+        <v>5904</v>
       </c>
       <c r="D3099" t="s">
-        <v>5910</v>
+        <v>5905</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71471,10 +70892,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5911</v>
+        <v>5906</v>
       </c>
       <c r="D3100" t="s">
-        <v>5912</v>
+        <v>5907</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71488,10 +70909,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5913</v>
+        <v>5908</v>
       </c>
       <c r="D3101" t="s">
-        <v>5914</v>
+        <v>1490</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71505,10 +70926,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5915</v>
+        <v>5909</v>
       </c>
       <c r="D3102" t="s">
-        <v>5916</v>
+        <v>5910</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71522,10 +70943,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5917</v>
+        <v>5911</v>
       </c>
       <c r="D3103" t="s">
-        <v>5918</v>
+        <v>5912</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71539,10 +70960,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5919</v>
+        <v>5913</v>
       </c>
       <c r="D3104" t="s">
-        <v>5920</v>
+        <v>5914</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71556,10 +70977,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5921</v>
+        <v>5915</v>
       </c>
       <c r="D3105" t="s">
-        <v>5922</v>
+        <v>5916</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71573,10 +70994,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D3106" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71590,10 +71011,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5925</v>
+        <v>5919</v>
       </c>
       <c r="D3107" t="s">
-        <v>5926</v>
+        <v>5920</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71607,10 +71028,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5927</v>
+        <v>5921</v>
       </c>
       <c r="D3108" t="s">
-        <v>5928</v>
+        <v>5922</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71623,11 +71044,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5929</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5930</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71640,11 +71061,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5924</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71658,10 +71079,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5931</v>
+        <v>5925</v>
       </c>
       <c r="D3111" t="s">
-        <v>5931</v>
+        <v>5926</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71675,10 +71096,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5932</v>
+        <v>5927</v>
       </c>
       <c r="D3112" t="s">
-        <v>5932</v>
+        <v>5928</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71692,10 +71113,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5933</v>
+        <v>5929</v>
       </c>
       <c r="D3113" t="s">
-        <v>5934</v>
+        <v>5930</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71709,10 +71130,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5935</v>
+        <v>5931</v>
       </c>
       <c r="D3114" t="s">
-        <v>5936</v>
+        <v>5932</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71726,10 +71147,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5937</v>
+        <v>5933</v>
       </c>
       <c r="D3115" t="s">
-        <v>5938</v>
+        <v>5934</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71743,10 +71164,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5939</v>
+        <v>5935</v>
       </c>
       <c r="D3116" t="s">
-        <v>5940</v>
+        <v>5936</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71760,10 +71181,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5941</v>
+        <v>5937</v>
       </c>
       <c r="D3117" t="s">
-        <v>5942</v>
+        <v>5938</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71777,10 +71198,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5943</v>
+        <v>5939</v>
       </c>
       <c r="D3118" t="s">
-        <v>5944</v>
+        <v>5940</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71794,1678 +71215,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5945</v>
+        <v>5941</v>
       </c>
       <c r="D3119" t="s">
-        <v>5946</v>
+        <v>5942</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5948</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5949</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5950</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5951</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5952</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5953</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5954</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5956</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5957</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5958</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5959</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5960</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5966</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5967</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5968</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5969</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5970</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5971</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5972</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5973</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5974</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5975</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5975</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5976</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5977</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5978</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5979</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6002</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6015</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5835</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6025</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6025</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4293</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
